--- a/정원/project_3/3_2_인원_배분_결과.xlsx
+++ b/정원/project_3/3_2_인원_배분_결과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,20 +531,35 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>1인당_업무점수</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>추가_정원1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>추가_정원2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>추가_정원3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>추가_정원</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>1인당_업무점수</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>추가_정원_산안</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>추가_정원_노동</t>
         </is>
@@ -624,15 +639,24 @@
         <v>52.19952400542292</v>
       </c>
       <c r="U2" t="n">
+        <v>0.3984696488963582</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y2" t="n">
         <v>41</v>
       </c>
-      <c r="V2" t="n">
-        <v>0.3984696488963582</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>27</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -710,15 +734,24 @@
         <v>52.25573746442848</v>
       </c>
       <c r="U3" t="n">
+        <v>0.3988987592704464</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="n">
         <v>43</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.3988987592704464</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>28</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>15</v>
       </c>
     </row>
@@ -796,15 +829,24 @@
         <v>69.88693836319759</v>
       </c>
       <c r="U4" t="n">
+        <v>0.3993539335039862</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>83</v>
+      </c>
+      <c r="Y4" t="n">
         <v>93</v>
       </c>
-      <c r="V4" t="n">
-        <v>0.3993539335039862</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>61</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
         <v>32</v>
       </c>
     </row>
@@ -882,15 +924,24 @@
         <v>43.74007521331145</v>
       </c>
       <c r="U5" t="n">
+        <v>0.3976370473937405</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y5" t="n">
         <v>39</v>
       </c>
-      <c r="V5" t="n">
-        <v>0.3976370473937405</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>26</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
         <v>13</v>
       </c>
     </row>
@@ -968,15 +1019,24 @@
         <v>54.1189620207994</v>
       </c>
       <c r="U6" t="n">
+        <v>0.3979335442705838</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y6" t="n">
         <v>61</v>
       </c>
-      <c r="V6" t="n">
-        <v>0.3979335442705838</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
         <v>40</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1054,15 +1114,24 @@
         <v>35.45012290948816</v>
       </c>
       <c r="U7" t="n">
+        <v>0.398315987747058</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y7" t="n">
         <v>35</v>
       </c>
-      <c r="V7" t="n">
-        <v>0.398315987747058</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>23</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1140,15 +1209,24 @@
         <v>49.40405779129755</v>
       </c>
       <c r="U8" t="n">
+        <v>0.3984198208975609</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y8" t="n">
         <v>49</v>
       </c>
-      <c r="V8" t="n">
-        <v>0.3984198208975609</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>32</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1226,15 +1304,24 @@
         <v>63.78510470832006</v>
       </c>
       <c r="U9" t="n">
+        <v>0.3986569044270004</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y9" t="n">
         <v>29</v>
       </c>
-      <c r="V9" t="n">
-        <v>0.3986569044270004</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>19</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1312,15 +1399,24 @@
         <v>55.53470729301262</v>
       </c>
       <c r="U10" t="n">
+        <v>0.3995302682950548</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>63</v>
+      </c>
+      <c r="Y10" t="n">
         <v>70</v>
       </c>
-      <c r="V10" t="n">
-        <v>0.3995302682950548</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>46</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AA10" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1398,15 +1494,24 @@
         <v>45.84251201327862</v>
       </c>
       <c r="U11" t="n">
+        <v>0.3986305392459011</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>47</v>
+      </c>
+      <c r="Y11" t="n">
         <v>54</v>
       </c>
-      <c r="V11" t="n">
-        <v>0.3986305392459011</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
         <v>36</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1484,15 +1589,24 @@
         <v>37.37348845470888</v>
       </c>
       <c r="U12" t="n">
+        <v>0.397590302709669</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X12" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y12" t="n">
         <v>31</v>
       </c>
-      <c r="V12" t="n">
-        <v>0.397590302709669</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>21</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1570,15 +1684,24 @@
         <v>53.36012512372614</v>
       </c>
       <c r="U13" t="n">
+        <v>0.3982098889830309</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3</v>
+      </c>
+      <c r="X13" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y13" t="n">
         <v>63</v>
       </c>
-      <c r="V13" t="n">
-        <v>0.3982098889830309</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>41</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AA13" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1656,15 +1779,24 @@
         <v>81.95483643309754</v>
       </c>
       <c r="U14" t="n">
+        <v>0.399779689917549</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>93</v>
+      </c>
+      <c r="Y14" t="n">
         <v>103</v>
       </c>
-      <c r="V14" t="n">
-        <v>0.399779689917549</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
         <v>67</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1742,15 +1874,24 @@
         <v>84.35609881520118</v>
       </c>
       <c r="U15" t="n">
+        <v>0.3997919375128018</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>79</v>
+      </c>
+      <c r="Y15" t="n">
         <v>89</v>
       </c>
-      <c r="V15" t="n">
-        <v>0.3997919375128018</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
         <v>58</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1828,15 +1969,24 @@
         <v>45.45933248860898</v>
       </c>
       <c r="U16" t="n">
+        <v>0.3987660744614823</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y16" t="n">
         <v>60</v>
       </c>
-      <c r="V16" t="n">
-        <v>0.3987660744614823</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
         <v>39</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1914,15 +2064,24 @@
         <v>48.79501817802287</v>
       </c>
       <c r="U17" t="n">
+        <v>0.3967074648619746</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y17" t="n">
         <v>41</v>
       </c>
-      <c r="V17" t="n">
-        <v>0.3967074648619746</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>27</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AA17" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2000,15 +2159,24 @@
         <v>33.92258528038036</v>
       </c>
       <c r="U18" t="n">
+        <v>0.3990892385927101</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y18" t="n">
         <v>42</v>
       </c>
-      <c r="V18" t="n">
-        <v>0.3990892385927101</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>28</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AA18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2086,15 +2254,24 @@
         <v>20.50829340563964</v>
       </c>
       <c r="U19" t="n">
+        <v>0.3943902578007623</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y19" t="n">
         <v>12</v>
       </c>
-      <c r="V19" t="n">
-        <v>0.3943902578007623</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="Z19" t="n">
         <v>8</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AA19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2172,15 +2349,24 @@
         <v>17.88266291753751</v>
       </c>
       <c r="U20" t="n">
+        <v>0.3973925092786113</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
         <v>20</v>
       </c>
-      <c r="V20" t="n">
-        <v>0.3973925092786113</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="Z20" t="n">
         <v>13</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AA20" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2258,15 +2444,24 @@
         <v>15.09608021858423</v>
       </c>
       <c r="U21" t="n">
+        <v>0.3972652689101114</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="n">
         <v>14</v>
       </c>
-      <c r="V21" t="n">
-        <v>0.3972652689101114</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="Z21" t="n">
         <v>10</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AA21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2344,15 +2539,24 @@
         <v>9.683977449250964</v>
       </c>
       <c r="U22" t="n">
+        <v>0.3873590979700385</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="n">
         <v>14</v>
       </c>
-      <c r="V22" t="n">
-        <v>0.3873590979700385</v>
-      </c>
-      <c r="W22" t="n">
+      <c r="Z22" t="n">
         <v>10</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2430,15 +2634,24 @@
         <v>7.031051344242279</v>
       </c>
       <c r="U23" t="n">
+        <v>0.3906139635690155</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
         <v>6</v>
       </c>
-      <c r="V23" t="n">
-        <v>0.3906139635690155</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="Z23" t="n">
         <v>4</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2516,15 +2729,24 @@
         <v>58.58901607914009</v>
       </c>
       <c r="U24" t="n">
+        <v>0.3985647352322455</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y24" t="n">
         <v>28</v>
       </c>
-      <c r="V24" t="n">
-        <v>0.3985647352322455</v>
-      </c>
-      <c r="W24" t="n">
+      <c r="Z24" t="n">
         <v>19</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AA24" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2602,15 +2824,24 @@
         <v>38.25971895565943</v>
       </c>
       <c r="U25" t="n">
+        <v>0.3985387391214524</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3</v>
+      </c>
+      <c r="X25" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y25" t="n">
         <v>38</v>
       </c>
-      <c r="V25" t="n">
-        <v>0.3985387391214524</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
         <v>25</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2688,15 +2919,24 @@
         <v>32.05891834677935</v>
       </c>
       <c r="U26" t="n">
+        <v>0.3957891153923376</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y26" t="n">
         <v>38</v>
       </c>
-      <c r="V26" t="n">
-        <v>0.3957891153923376</v>
-      </c>
-      <c r="W26" t="n">
+      <c r="Z26" t="n">
         <v>25</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AA26" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2774,15 +3014,24 @@
         <v>44.65076437579864</v>
       </c>
       <c r="U27" t="n">
+        <v>0.3986675390696307</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3</v>
+      </c>
+      <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
         <v>24</v>
       </c>
-      <c r="V27" t="n">
-        <v>0.3986675390696307</v>
-      </c>
-      <c r="W27" t="n">
+      <c r="Z27" t="n">
         <v>16</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AA27" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2860,15 +3109,24 @@
         <v>30.59794117512517</v>
       </c>
       <c r="U28" t="n">
+        <v>0.39737585941721</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y28" t="n">
         <v>33</v>
       </c>
-      <c r="V28" t="n">
-        <v>0.39737585941721</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="Z28" t="n">
         <v>22</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AA28" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2946,15 +3204,24 @@
         <v>38.72481576816465</v>
       </c>
       <c r="U29" t="n">
+        <v>0.3992249048264397</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y29" t="n">
         <v>38</v>
       </c>
-      <c r="V29" t="n">
-        <v>0.3992249048264397</v>
-      </c>
-      <c r="W29" t="n">
+      <c r="Z29" t="n">
         <v>25</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AA29" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3032,15 +3299,24 @@
         <v>23.65770988970417</v>
       </c>
       <c r="U30" t="n">
+        <v>0.3942951648284028</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y30" t="n">
         <v>31</v>
       </c>
-      <c r="V30" t="n">
-        <v>0.3942951648284028</v>
-      </c>
-      <c r="W30" t="n">
+      <c r="Z30" t="n">
         <v>21</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AA30" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3118,15 +3394,24 @@
         <v>19.18505413576781</v>
       </c>
       <c r="U31" t="n">
+        <v>0.3996886278284961</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
         <v>17</v>
       </c>
-      <c r="V31" t="n">
-        <v>0.3996886278284961</v>
-      </c>
-      <c r="W31" t="n">
+      <c r="Z31" t="n">
         <v>12</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AA31" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3204,15 +3489,24 @@
         <v>37.07808369410807</v>
       </c>
       <c r="U32" t="n">
+        <v>0.3986890719796567</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y32" t="n">
         <v>26</v>
       </c>
-      <c r="V32" t="n">
-        <v>0.3986890719796567</v>
-      </c>
-      <c r="W32" t="n">
+      <c r="Z32" t="n">
         <v>17</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AA32" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3290,15 +3584,24 @@
         <v>46.53767990997235</v>
       </c>
       <c r="U33" t="n">
+        <v>0.3977579479484817</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4</v>
+      </c>
+      <c r="W33" t="n">
+        <v>3</v>
+      </c>
+      <c r="X33" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y33" t="n">
         <v>52</v>
       </c>
-      <c r="V33" t="n">
-        <v>0.3977579479484817</v>
-      </c>
-      <c r="W33" t="n">
+      <c r="Z33" t="n">
         <v>34</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AA33" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3376,15 +3679,24 @@
         <v>36.13294408518846</v>
       </c>
       <c r="U34" t="n">
+        <v>0.3970653196174556</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y34" t="n">
         <v>25</v>
       </c>
-      <c r="V34" t="n">
-        <v>0.3970653196174556</v>
-      </c>
-      <c r="W34" t="n">
+      <c r="Z34" t="n">
         <v>17</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AA34" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3462,15 +3774,24 @@
         <v>18.19823403643987</v>
       </c>
       <c r="U35" t="n">
+        <v>0.3956137834008668</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y35" t="n">
         <v>15</v>
       </c>
-      <c r="V35" t="n">
-        <v>0.3956137834008668</v>
-      </c>
-      <c r="W35" t="n">
+      <c r="Z35" t="n">
         <v>10</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AA35" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3548,15 +3869,24 @@
         <v>10.52577273899265</v>
       </c>
       <c r="U36" t="n">
+        <v>0.3898434347775055</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y36" t="n">
         <v>10</v>
       </c>
-      <c r="V36" t="n">
-        <v>0.3898434347775055</v>
-      </c>
-      <c r="W36" t="n">
+      <c r="Z36" t="n">
         <v>7</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AA36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3634,15 +3964,24 @@
         <v>8.343848120685553</v>
       </c>
       <c r="U37" t="n">
+        <v>0.3973261009850264</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="n">
         <v>6</v>
       </c>
-      <c r="V37" t="n">
-        <v>0.3973261009850264</v>
-      </c>
-      <c r="W37" t="n">
+      <c r="Z37" t="n">
         <v>4</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AA37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3720,15 +4059,24 @@
         <v>62.46816711657905</v>
       </c>
       <c r="U38" t="n">
+        <v>0.3978864147552806</v>
+      </c>
+      <c r="V38" t="n">
+        <v>6</v>
+      </c>
+      <c r="W38" t="n">
+        <v>3</v>
+      </c>
+      <c r="X38" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y38" t="n">
         <v>50</v>
       </c>
-      <c r="V38" t="n">
-        <v>0.3978864147552806</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="Z38" t="n">
         <v>33</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AA38" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3806,15 +4154,24 @@
         <v>33.77366704940793</v>
       </c>
       <c r="U39" t="n">
+        <v>0.3973372594047992</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4</v>
+      </c>
+      <c r="W39" t="n">
+        <v>3</v>
+      </c>
+      <c r="X39" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y39" t="n">
         <v>23</v>
       </c>
-      <c r="V39" t="n">
-        <v>0.3973372594047992</v>
-      </c>
-      <c r="W39" t="n">
+      <c r="Z39" t="n">
         <v>15</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AA39" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3892,15 +4249,24 @@
         <v>12.76735512152373</v>
       </c>
       <c r="U40" t="n">
+        <v>0.3989798475476165</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y40" t="n">
         <v>10</v>
       </c>
-      <c r="V40" t="n">
-        <v>0.3989798475476165</v>
-      </c>
-      <c r="W40" t="n">
+      <c r="Z40" t="n">
         <v>7</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AA40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3978,15 +4344,24 @@
         <v>13.04197905327611</v>
       </c>
       <c r="U41" t="n">
+        <v>0.3952114864629125</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2</v>
+      </c>
+      <c r="X41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y41" t="n">
         <v>9</v>
       </c>
-      <c r="V41" t="n">
-        <v>0.3952114864629125</v>
-      </c>
-      <c r="W41" t="n">
+      <c r="Z41" t="n">
         <v>6</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AA41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4064,15 +4439,24 @@
         <v>22.1652437769504</v>
       </c>
       <c r="U42" t="n">
+        <v>0.3958079245884001</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2</v>
+      </c>
+      <c r="X42" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y42" t="n">
         <v>25</v>
       </c>
-      <c r="V42" t="n">
-        <v>0.3958079245884001</v>
-      </c>
-      <c r="W42" t="n">
+      <c r="Z42" t="n">
         <v>17</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AA42" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4150,15 +4534,24 @@
         <v>33.50925959006671</v>
       </c>
       <c r="U43" t="n">
+        <v>0.3989197570246037</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2</v>
+      </c>
+      <c r="X43" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y43" t="n">
         <v>42</v>
       </c>
-      <c r="V43" t="n">
-        <v>0.3989197570246037</v>
-      </c>
-      <c r="W43" t="n">
+      <c r="Z43" t="n">
         <v>28</v>
       </c>
-      <c r="X43" t="n">
+      <c r="AA43" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4236,15 +4629,24 @@
         <v>71.17642263112214</v>
       </c>
       <c r="U44" t="n">
+        <v>0.3976336459839225</v>
+      </c>
+      <c r="V44" t="n">
+        <v>6</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y44" t="n">
         <v>73</v>
       </c>
-      <c r="V44" t="n">
-        <v>0.3976336459839225</v>
-      </c>
-      <c r="W44" t="n">
+      <c r="Z44" t="n">
         <v>48</v>
       </c>
-      <c r="X44" t="n">
+      <c r="AA44" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4322,15 +4724,24 @@
         <v>42.75425379426972</v>
       </c>
       <c r="U45" t="n">
+        <v>0.3995724653670067</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4</v>
+      </c>
+      <c r="W45" t="n">
+        <v>3</v>
+      </c>
+      <c r="X45" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y45" t="n">
         <v>50</v>
       </c>
-      <c r="V45" t="n">
-        <v>0.3995724653670067</v>
-      </c>
-      <c r="W45" t="n">
+      <c r="Z45" t="n">
         <v>33</v>
       </c>
-      <c r="X45" t="n">
+      <c r="AA45" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4408,15 +4819,24 @@
         <v>54.77988802668159</v>
       </c>
       <c r="U46" t="n">
+        <v>0.3969557103382724</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3</v>
+      </c>
+      <c r="X46" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y46" t="n">
         <v>39</v>
       </c>
-      <c r="V46" t="n">
-        <v>0.3969557103382724</v>
-      </c>
-      <c r="W46" t="n">
+      <c r="Z46" t="n">
         <v>26</v>
       </c>
-      <c r="X46" t="n">
+      <c r="AA46" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4494,15 +4914,24 @@
         <v>23.64835061977544</v>
       </c>
       <c r="U47" t="n">
+        <v>0.3941391769962574</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2</v>
+      </c>
+      <c r="X47" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y47" t="n">
         <v>28</v>
       </c>
-      <c r="V47" t="n">
-        <v>0.3941391769962574</v>
-      </c>
-      <c r="W47" t="n">
+      <c r="Z47" t="n">
         <v>19</v>
       </c>
-      <c r="X47" t="n">
+      <c r="AA47" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4580,15 +5009,24 @@
         <v>16.88832600479458</v>
       </c>
       <c r="U48" t="n">
+        <v>0.3927517675533623</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y48" t="n">
         <v>23</v>
       </c>
-      <c r="V48" t="n">
-        <v>0.3927517675533623</v>
-      </c>
-      <c r="W48" t="n">
+      <c r="Z48" t="n">
         <v>15</v>
       </c>
-      <c r="X48" t="n">
+      <c r="AA48" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4666,15 +5104,24 @@
         <v>14.4362194933398</v>
       </c>
       <c r="U49" t="n">
+        <v>0.3901680944145893</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2</v>
+      </c>
+      <c r="X49" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y49" t="n">
         <v>21</v>
       </c>
-      <c r="V49" t="n">
-        <v>0.3901680944145893</v>
-      </c>
-      <c r="W49" t="n">
+      <c r="Z49" t="n">
         <v>14</v>
       </c>
-      <c r="X49" t="n">
+      <c r="AA49" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4752,15 +5199,24 @@
         <v>63.3337463637591</v>
       </c>
       <c r="U50" t="n">
+        <v>0.3983254488286736</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4</v>
+      </c>
+      <c r="W50" t="n">
+        <v>3</v>
+      </c>
+      <c r="X50" t="n">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="n">
         <v>80</v>
       </c>
-      <c r="V50" t="n">
-        <v>0.3983254488286736</v>
-      </c>
-      <c r="W50" t="n">
+      <c r="Z50" t="n">
         <v>52</v>
       </c>
-      <c r="X50" t="n">
+      <c r="AA50" t="n">
         <v>28</v>
       </c>
     </row>
@@ -4838,15 +5294,24 @@
         <v>31.79751885615885</v>
       </c>
       <c r="U51" t="n">
+        <v>0.3974689857019856</v>
+      </c>
+      <c r="V51" t="n">
+        <v>4</v>
+      </c>
+      <c r="W51" t="n">
+        <v>3</v>
+      </c>
+      <c r="X51" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y51" t="n">
         <v>26</v>
       </c>
-      <c r="V51" t="n">
-        <v>0.3974689857019856</v>
-      </c>
-      <c r="W51" t="n">
+      <c r="Z51" t="n">
         <v>17</v>
       </c>
-      <c r="X51" t="n">
+      <c r="AA51" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4924,15 +5389,24 @@
         <v>32.47166862171812</v>
       </c>
       <c r="U52" t="n">
+        <v>0.3959959588014405</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4</v>
+      </c>
+      <c r="W52" t="n">
+        <v>3</v>
+      </c>
+      <c r="X52" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y52" t="n">
         <v>26</v>
       </c>
-      <c r="V52" t="n">
-        <v>0.3959959588014405</v>
-      </c>
-      <c r="W52" t="n">
+      <c r="Z52" t="n">
         <v>17</v>
       </c>
-      <c r="X52" t="n">
+      <c r="AA52" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5010,15 +5484,24 @@
         <v>19.45960973037715</v>
       </c>
       <c r="U53" t="n">
+        <v>0.3971348924566766</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2</v>
+      </c>
+      <c r="X53" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y53" t="n">
         <v>20</v>
       </c>
-      <c r="V53" t="n">
-        <v>0.3971348924566766</v>
-      </c>
-      <c r="W53" t="n">
+      <c r="Z53" t="n">
         <v>13</v>
       </c>
-      <c r="X53" t="n">
+      <c r="AA53" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5096,15 +5579,24 @@
         <v>27.77679754515138</v>
       </c>
       <c r="U54" t="n">
+        <v>0.3968113935021626</v>
+      </c>
+      <c r="V54" t="n">
+        <v>4</v>
+      </c>
+      <c r="W54" t="n">
+        <v>2</v>
+      </c>
+      <c r="X54" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y54" t="n">
         <v>24</v>
       </c>
-      <c r="V54" t="n">
-        <v>0.3968113935021626</v>
-      </c>
-      <c r="W54" t="n">
+      <c r="Z54" t="n">
         <v>16</v>
       </c>
-      <c r="X54" t="n">
+      <c r="AA54" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5182,15 +5674,24 @@
         <v>23.86358752764377</v>
       </c>
       <c r="U55" t="n">
+        <v>0.3977264587940628</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3</v>
+      </c>
+      <c r="W55" t="n">
+        <v>2</v>
+      </c>
+      <c r="X55" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y55" t="n">
         <v>17</v>
       </c>
-      <c r="V55" t="n">
-        <v>0.3977264587940628</v>
-      </c>
-      <c r="W55" t="n">
+      <c r="Z55" t="n">
         <v>12</v>
       </c>
-      <c r="X55" t="n">
+      <c r="AA55" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5268,15 +5769,24 @@
         <v>21.87269509396604</v>
       </c>
       <c r="U56" t="n">
+        <v>0.3976853653448371</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2</v>
+      </c>
+      <c r="X56" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y56" t="n">
         <v>24</v>
       </c>
-      <c r="V56" t="n">
-        <v>0.3976853653448371</v>
-      </c>
-      <c r="W56" t="n">
+      <c r="Z56" t="n">
         <v>16</v>
       </c>
-      <c r="X56" t="n">
+      <c r="AA56" t="n">
         <v>8</v>
       </c>
     </row>

--- a/정원/project_3/3_2_인원_배분_결과.xlsx
+++ b/정원/project_3/3_2_인원_배분_결과.xlsx
@@ -624,22 +624,22 @@
         <v>0.7852558117822799</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3232603724273113</v>
+        <v>0.3322699798522498</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="R2" t="n">
         <v>0.07564153418972935</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4802825760874825</v>
+        <v>0.4319223797846252</v>
       </c>
       <c r="T2" t="n">
-        <v>52.19952400542292</v>
+        <v>50.06304886224699</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3984696488963582</v>
+        <v>0.4005043908979759</v>
       </c>
       <c r="V2" t="n">
         <v>6</v>
@@ -648,16 +648,16 @@
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -719,22 +719,22 @@
         <v>0.8530541032583325</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3369813786344332</v>
+        <v>0.3415043653458697</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06617647058823529</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R3" t="n">
         <v>0.001052695816678363</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8673731068853728</v>
+        <v>0.9578313253012049</v>
       </c>
       <c r="T3" t="n">
-        <v>52.25573746442848</v>
+        <v>53.95490540303584</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3988987592704464</v>
+        <v>0.4026485477838495</v>
       </c>
       <c r="V3" t="n">
         <v>6</v>
@@ -743,16 +743,16 @@
         <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -814,22 +814,22 @@
         <v>0.8586126412099711</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8662201894805619</v>
+        <v>0.8626595030221625</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1691176470588235</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="R4" t="n">
         <v>0.1339822414792665</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7842938017128755</v>
+        <v>0.9130504318157586</v>
       </c>
       <c r="T4" t="n">
-        <v>69.88693836319759</v>
+        <v>72.04105858668304</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3993539335039862</v>
+        <v>0.4024640144507432</v>
       </c>
       <c r="V4" t="n">
         <v>6</v>
@@ -838,16 +838,16 @@
         <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y4" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Z4" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -909,22 +909,22 @@
         <v>0.6172404537391467</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3533159098333878</v>
+        <v>0.3455339153794493</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1029411764705882</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R5" t="n">
         <v>0.02538675128917096</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5223302849954033</v>
+        <v>0.4995735153001386</v>
       </c>
       <c r="T5" t="n">
-        <v>43.74007521331145</v>
+        <v>44.25942152923229</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3976370473937405</v>
+        <v>0.4023583775384754</v>
       </c>
       <c r="V5" t="n">
         <v>4</v>
@@ -1004,22 +1004,22 @@
         <v>0.8400732891420035</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4617771969944462</v>
+        <v>0.4529885829415715</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.2</v>
       </c>
       <c r="R6" t="n">
         <v>0.1448448417904983</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6078289059853873</v>
+        <v>0.6431389273909799</v>
       </c>
       <c r="T6" t="n">
-        <v>54.1189620207994</v>
+        <v>55.82562219971104</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3979335442705838</v>
+        <v>0.4016231812928852</v>
       </c>
       <c r="V6" t="n">
         <v>6</v>
@@ -1028,16 +1028,16 @@
         <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Y6" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1099,22 +1099,22 @@
         <v>0.4085356175893941</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3384514864423391</v>
+        <v>0.3263935527199462</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="R7" t="n">
         <v>0.07626704909529186</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3815744907340204</v>
+        <v>0.377332338202367</v>
       </c>
       <c r="T7" t="n">
-        <v>35.45012290948816</v>
+        <v>35.35753956863873</v>
       </c>
       <c r="U7" t="n">
-        <v>0.398315987747058</v>
+        <v>0.4017902223708946</v>
       </c>
       <c r="V7" t="n">
         <v>4</v>
@@ -1123,16 +1123,16 @@
         <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1194,22 +1194,22 @@
         <v>0.6780342638409113</v>
       </c>
       <c r="P8" t="n">
-        <v>0.362953283240771</v>
+        <v>0.3507387508394896</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R8" t="n">
         <v>0.00851310530009459</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5731359171626265</v>
+        <v>0.6454312826527349</v>
       </c>
       <c r="T8" t="n">
-        <v>49.40405779129755</v>
+        <v>50.2364846124337</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3984198208975609</v>
+        <v>0.4018918768994696</v>
       </c>
       <c r="V8" t="n">
         <v>6</v>
@@ -1218,13 +1218,13 @@
         <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1289,22 +1289,22 @@
         <v>0.6233906731397628</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7504083632799738</v>
+        <v>0.7424445936870383</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="R9" t="n">
         <v>0.02714124431696823</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7248754052353994</v>
+        <v>0.670753811707005</v>
       </c>
       <c r="T9" t="n">
-        <v>63.78510470832006</v>
+        <v>58.44613043972847</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3986569044270004</v>
+        <v>0.4003159619159484</v>
       </c>
       <c r="V9" t="n">
         <v>4</v>
@@ -1313,16 +1313,16 @@
         <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1384,22 +1384,22 @@
         <v>0.4624066380356643</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6174452793204835</v>
+        <v>0.6108126259234385</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5872647215367494</v>
+        <v>0.6118989231261328</v>
       </c>
       <c r="T10" t="n">
-        <v>55.53470729301262</v>
+        <v>56.47575999237693</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3995302682950548</v>
+        <v>0.4005373049104747</v>
       </c>
       <c r="V10" t="n">
         <v>4</v>
@@ -1408,16 +1408,16 @@
         <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y10" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1479,22 +1479,22 @@
         <v>0.4683969750723555</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5052270499836655</v>
+        <v>0.4919408999328408</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2132352941176471</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="R11" t="n">
         <v>0.001647697800018308</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5384913146562152</v>
+        <v>0.5664783025908946</v>
       </c>
       <c r="T11" t="n">
-        <v>45.84251201327862</v>
+        <v>45.94800737439541</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3986305392459011</v>
+        <v>0.399547890212134</v>
       </c>
       <c r="V11" t="n">
         <v>4</v>
@@ -1574,22 +1574,22 @@
         <v>0.3439804873494539</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4795818360013068</v>
+        <v>0.5045332437877771</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2794117647058824</v>
+        <v>0.4</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4973629457589394</v>
+        <v>0.4743042968333511</v>
       </c>
       <c r="T12" t="n">
-        <v>37.37348845470888</v>
+        <v>38.96310571875153</v>
       </c>
       <c r="U12" t="n">
-        <v>0.397590302709669</v>
+        <v>0.4016815022551704</v>
       </c>
       <c r="V12" t="n">
         <v>4</v>
@@ -1598,16 +1598,16 @@
         <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1669,22 +1669,22 @@
         <v>0.5480837456820091</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6099313949689644</v>
+        <v>0.5963734049697784</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="R13" t="n">
         <v>0.02729380892808104</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6923114143320269</v>
+        <v>0.6543341507623414</v>
       </c>
       <c r="T13" t="n">
-        <v>53.36012512372614</v>
+        <v>54.21325012888865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3982098889830309</v>
+        <v>0.4015796305843604</v>
       </c>
       <c r="V13" t="n">
         <v>6</v>
@@ -1693,13 +1693,13 @@
         <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y13" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA13" t="n">
         <v>22</v>
@@ -1764,22 +1764,22 @@
         <v>0.8162624871627299</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8809212675596211</v>
+        <v>0.6964405641370047</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8014705882352942</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="R14" t="n">
         <v>0.5322369023281359</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9463395751681425</v>
+        <v>0.7844652948075488</v>
       </c>
       <c r="T14" t="n">
-        <v>81.95483643309754</v>
+        <v>72.53205417139837</v>
       </c>
       <c r="U14" t="n">
-        <v>0.399779689917549</v>
+        <v>0.4029558565077687</v>
       </c>
       <c r="V14" t="n">
         <v>6</v>
@@ -1788,16 +1788,16 @@
         <v>4</v>
       </c>
       <c r="X14" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="Y14" t="n">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4191176470588235</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="R15" t="n">
         <v>0.01649223446129436</v>
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>84.35609881520118</v>
+        <v>85.07401325370385</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3997919375128018</v>
+        <v>0.4012925153476597</v>
       </c>
       <c r="V15" t="n">
         <v>6</v>
@@ -1883,13 +1883,13 @@
         <v>4</v>
       </c>
       <c r="X15" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z15" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA15" t="n">
         <v>31</v>
@@ -1954,22 +1954,22 @@
         <v>0.5648982354588741</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4612871610584776</v>
+        <v>0.4610476830087307</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="R16" t="n">
         <v>0.02750739938363897</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4508636957468428</v>
+        <v>0.4824608167182002</v>
       </c>
       <c r="T16" t="n">
-        <v>45.45933248860898</v>
+        <v>47.89060339878098</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3987660744614823</v>
+        <v>0.4024420453679074</v>
       </c>
       <c r="V16" t="n">
         <v>4</v>
@@ -1978,16 +1978,16 @@
         <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Y16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z16" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -2049,22 +2049,22 @@
         <v>0.5172019419288582</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6143417183926821</v>
+        <v>0.5896574882471457</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2132352941176471</v>
+        <v>0.4</v>
       </c>
       <c r="R17" t="n">
         <v>0.005812711683397919</v>
       </c>
       <c r="S17" t="n">
-        <v>0.563845744423477</v>
+        <v>0.6040089561786971</v>
       </c>
       <c r="T17" t="n">
-        <v>48.79501817802287</v>
+        <v>50.36979669271177</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3967074648619746</v>
+        <v>0.3997602912119982</v>
       </c>
       <c r="V17" t="n">
         <v>4</v>
@@ -2073,16 +2073,16 @@
         <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2144,22 +2144,22 @@
         <v>0.3739228363364765</v>
       </c>
       <c r="P18" t="n">
-        <v>0.364750081672656</v>
+        <v>0.4947951645399597</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3308823529411765</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="R18" t="n">
         <v>0.2203643242913374</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3917840034838148</v>
+        <v>0.432295553897004</v>
       </c>
       <c r="T18" t="n">
-        <v>33.92258528038036</v>
+        <v>38.14449388765335</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3990892385927101</v>
+        <v>0.4015209882910878</v>
       </c>
       <c r="V18" t="n">
         <v>4</v>
@@ -2168,16 +2168,16 @@
         <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Y18" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Z18" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -2239,22 +2239,22 @@
         <v>0.1699222761646905</v>
       </c>
       <c r="P19" t="n">
-        <v>0.243874550800392</v>
+        <v>0.2464741437206179</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3602941176470588</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1467556974887502</v>
+        <v>0.2029534065465401</v>
       </c>
       <c r="T19" t="n">
-        <v>20.50829340563964</v>
+        <v>19.96560536013525</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3943902578007623</v>
+        <v>0.3993121072027049</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
@@ -2263,16 +2263,16 @@
         <v>2</v>
       </c>
       <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
         <v>7</v>
       </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>8</v>
-      </c>
       <c r="AA19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2334,22 +2334,22 @@
         <v>0.1567990850527495</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2693564194707612</v>
+        <v>0.2735057085292142</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1428847921807713</v>
+        <v>0.4697195863098411</v>
       </c>
       <c r="T20" t="n">
-        <v>17.88266291753751</v>
+        <v>19.04233603833588</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3973925092786113</v>
+        <v>0.3967153341319974</v>
       </c>
       <c r="V20" t="n">
         <v>3</v>
@@ -2358,16 +2358,16 @@
         <v>2</v>
       </c>
       <c r="X20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="n">
         <v>15</v>
       </c>
-      <c r="Y20" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>13</v>
-      </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2429,22 +2429,22 @@
         <v>0.1674831948464196</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1932375040836328</v>
+        <v>0.1925789120214909</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09558823529411764</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1351429815648135</v>
+        <v>0.01044887514660412</v>
       </c>
       <c r="T21" t="n">
-        <v>15.09608021858423</v>
+        <v>14.41264640140008</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3972652689101114</v>
+        <v>0.40035128892778</v>
       </c>
       <c r="V21" t="n">
         <v>3</v>
@@ -2453,13 +2453,13 @@
         <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA21" t="n">
         <v>4</v>
@@ -2524,22 +2524,22 @@
         <v>0.0414363738213052</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3211368833714472</v>
+        <v>0.3287441235728677</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04411764705882353</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03662844147675037</v>
+        <v>0.08535025055976117</v>
       </c>
       <c r="T22" t="n">
-        <v>9.683977449250964</v>
+        <v>10.18400937356074</v>
       </c>
       <c r="U22" t="n">
-        <v>0.3873590979700385</v>
+        <v>0.3916926682138746</v>
       </c>
       <c r="V22" t="n">
         <v>3</v>
@@ -2548,16 +2548,16 @@
         <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2619,22 +2619,22 @@
         <v>0.04434926710857996</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1948709572035283</v>
+        <v>0.1991269308260578</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03716069095659747</v>
+        <v>0.0269218466787504</v>
       </c>
       <c r="T23" t="n">
-        <v>7.031051344242279</v>
+        <v>8.662570178191336</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3906139635690155</v>
+        <v>0.393753189917788</v>
       </c>
       <c r="V23" t="n">
         <v>3</v>
@@ -2643,16 +2643,16 @@
         <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2714,22 +2714,22 @@
         <v>0.6162484828680795</v>
       </c>
       <c r="P24" t="n">
-        <v>0.5432865076772296</v>
+        <v>0.5233378106111484</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9852941176470589</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="R24" t="n">
         <v>0.009642083422329356</v>
       </c>
       <c r="S24" t="n">
-        <v>0.501282237383268</v>
+        <v>0.531080072502399</v>
       </c>
       <c r="T24" t="n">
-        <v>58.58901607914009</v>
+        <v>52.30427195512534</v>
       </c>
       <c r="U24" t="n">
-        <v>0.3985647352322455</v>
+        <v>0.4023405535009642</v>
       </c>
       <c r="V24" t="n">
         <v>4</v>
@@ -2738,16 +2738,16 @@
         <v>3</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2809,22 +2809,22 @@
         <v>0.4321258519279246</v>
       </c>
       <c r="P25" t="n">
-        <v>0.380594576935642</v>
+        <v>0.3769308260577569</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="R25" t="n">
         <v>0.01643120861684923</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4365413461073209</v>
+        <v>0.4726516686213882</v>
       </c>
       <c r="T25" t="n">
-        <v>38.25971895565943</v>
+        <v>38.67180838489666</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3985387391214524</v>
+        <v>0.4028313373426736</v>
       </c>
       <c r="V25" t="n">
         <v>4</v>
@@ -2904,22 +2904,22 @@
         <v>0.3025371113808235</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3789611238157465</v>
+        <v>0.382303559435863</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2</v>
       </c>
       <c r="R26" t="n">
         <v>0.2161535410246239</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2799632263995742</v>
+        <v>0.2775349184348012</v>
       </c>
       <c r="T26" t="n">
-        <v>32.05891834677935</v>
+        <v>32.05480198994605</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3957891153923376</v>
+        <v>0.4006850248743256</v>
       </c>
       <c r="V26" t="n">
         <v>4</v>
@@ -2928,16 +2928,16 @@
         <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z26" t="n">
         <v>25</v>
       </c>
       <c r="AA26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -2999,22 +2999,22 @@
         <v>0.4948230790775838</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5967004246978111</v>
+        <v>0.5953660174613835</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2573529411764706</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="R27" t="n">
         <v>0.09541390778994904</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4057676489088886</v>
+        <v>0.3959377332338203</v>
       </c>
       <c r="T27" t="n">
-        <v>44.65076437579864</v>
+        <v>45.27412451365731</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3986675390696307</v>
+        <v>0.4006559691474098</v>
       </c>
       <c r="V27" t="n">
         <v>4</v>
@@ -3023,13 +3023,13 @@
         <v>3</v>
       </c>
       <c r="X27" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z27" t="n">
         <v>17</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>16</v>
       </c>
       <c r="AA27" t="n">
         <v>8</v>
@@ -3094,22 +3094,22 @@
         <v>0.2720614321725329</v>
       </c>
       <c r="P28" t="n">
-        <v>0.4666775563541327</v>
+        <v>0.3495634654130289</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="R28" t="n">
         <v>0.4228175632380313</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2400445154110418</v>
+        <v>0.2292355261754984</v>
       </c>
       <c r="T28" t="n">
-        <v>30.59794117512517</v>
+        <v>29.89546467750505</v>
       </c>
       <c r="U28" t="n">
-        <v>0.39737585941721</v>
+        <v>0.3986061957000673</v>
       </c>
       <c r="V28" t="n">
         <v>3</v>
@@ -3118,16 +3118,16 @@
         <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -3189,22 +3189,22 @@
         <v>0.4121860703949211</v>
       </c>
       <c r="P29" t="n">
-        <v>0.569095066971578</v>
+        <v>0.5681665547347213</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.09558823529411764</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="R29" t="n">
         <v>0.002303725627803375</v>
       </c>
       <c r="S29" t="n">
-        <v>0.3797358107127304</v>
+        <v>0.3695489924298966</v>
       </c>
       <c r="T29" t="n">
-        <v>38.72481576816465</v>
+        <v>42.06306544270854</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3992249048264397</v>
+        <v>0.4006006232638909</v>
       </c>
       <c r="V29" t="n">
         <v>4</v>
@@ -3213,16 +3213,16 @@
         <v>3</v>
       </c>
       <c r="X29" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y29" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Z29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -3284,22 +3284,22 @@
         <v>0.2424306787414807</v>
       </c>
       <c r="P30" t="n">
-        <v>0.2696831100947403</v>
+        <v>0.2708193418401612</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2279411764705882</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1710940146126675</v>
+        <v>0.1685147670327327</v>
       </c>
       <c r="T30" t="n">
-        <v>23.65770988970417</v>
+        <v>23.02449015837066</v>
       </c>
       <c r="U30" t="n">
-        <v>0.3942951648284028</v>
+        <v>0.39697396824777</v>
       </c>
       <c r="V30" t="n">
         <v>3</v>
@@ -3308,13 +3308,13 @@
         <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y30" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
         <v>10</v>
@@ -3379,22 +3379,22 @@
         <v>0.1490255344972458</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3851682456713492</v>
+        <v>0.3912021490933513</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1985294117647059</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="R31" t="n">
         <v>0.05895096573398834</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1586103449944356</v>
+        <v>0.151615310800725</v>
       </c>
       <c r="T31" t="n">
-        <v>19.18505413576781</v>
+        <v>19.83091746104679</v>
       </c>
       <c r="U31" t="n">
-        <v>0.3996886278284961</v>
+        <v>0.3966183492209358</v>
       </c>
       <c r="V31" t="n">
         <v>3</v>
@@ -3403,16 +3403,16 @@
         <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -3474,22 +3474,22 @@
         <v>0.3938941275324433</v>
       </c>
       <c r="P32" t="n">
-        <v>0.4000326690623979</v>
+        <v>0.4303223640026864</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3676470588235294</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R32" t="n">
         <v>0.03885820645043176</v>
       </c>
       <c r="S32" t="n">
-        <v>0.3397203270914985</v>
+        <v>0.4050005331058748</v>
       </c>
       <c r="T32" t="n">
-        <v>37.07808369410807</v>
+        <v>37.06108076202316</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3986890719796567</v>
+        <v>0.402837834369817</v>
       </c>
       <c r="V32" t="n">
         <v>4</v>
@@ -3498,16 +3498,16 @@
         <v>3</v>
       </c>
       <c r="X32" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z32" t="n">
         <v>17</v>
       </c>
       <c r="AA32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -3569,22 +3569,22 @@
         <v>0.512292269629353</v>
       </c>
       <c r="P33" t="n">
-        <v>0.5717085919634106</v>
+        <v>0.5624580255204835</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2426470588235294</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="R33" t="n">
         <v>0.03322857230036921</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4407509556297479</v>
+        <v>0.4526601983153855</v>
       </c>
       <c r="T33" t="n">
-        <v>46.53767990997235</v>
+        <v>46.34938056994307</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3977579479484817</v>
+        <v>0.3995636256029574</v>
       </c>
       <c r="V33" t="n">
         <v>4</v>
@@ -3593,16 +3593,16 @@
         <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z33" t="n">
         <v>34</v>
       </c>
       <c r="AA33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -3664,22 +3664,22 @@
         <v>0.3489053309681636</v>
       </c>
       <c r="P34" t="n">
-        <v>0.4879124469127736</v>
+        <v>0.4927803895231699</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R34" t="n">
         <v>0.4070118695267446</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3080272898824212</v>
+        <v>0.2824928030706899</v>
       </c>
       <c r="T34" t="n">
-        <v>36.13294408518846</v>
+        <v>38.34193531617196</v>
       </c>
       <c r="U34" t="n">
-        <v>0.3970653196174556</v>
+        <v>0.3993951595434579</v>
       </c>
       <c r="V34" t="n">
         <v>4</v>
@@ -3688,16 +3688,16 @@
         <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y34" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3759,22 +3759,22 @@
         <v>0.2444928111287462</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1951976478275073</v>
+        <v>0.1908999328408328</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.08088235294117647</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="R35" t="n">
         <v>0.007262075488969579</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1685779261624812</v>
+        <v>0.1574261648363365</v>
       </c>
       <c r="T35" t="n">
-        <v>18.19823403643987</v>
+        <v>17.97497012793662</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3956137834008668</v>
+        <v>0.3994437806208138</v>
       </c>
       <c r="V35" t="n">
         <v>3</v>
@@ -3783,16 +3783,16 @@
         <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="n">
         <v>10</v>
       </c>
       <c r="AA35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -3854,22 +3854,22 @@
         <v>0.09050858930071888</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1703691604050964</v>
+        <v>0.172431161853593</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.07606328930178545</v>
+        <v>0.07154280840174859</v>
       </c>
       <c r="T36" t="n">
-        <v>10.52577273899265</v>
+        <v>11.84387560410411</v>
       </c>
       <c r="U36" t="n">
-        <v>0.3898434347775055</v>
+        <v>0.3947958534701369</v>
       </c>
       <c r="V36" t="n">
         <v>3</v>
@@ -3878,16 +3878,16 @@
         <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3949,22 +3949,22 @@
         <v>0.08315983568294277</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1143417183926821</v>
+        <v>0.1145063801208865</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="R37" t="n">
         <v>0.004988862783388765</v>
       </c>
       <c r="S37" t="n">
-        <v>0.06986984080901922</v>
+        <v>0.06109393325514447</v>
       </c>
       <c r="T37" t="n">
-        <v>8.343848120685553</v>
+        <v>9.17358267309524</v>
       </c>
       <c r="U37" t="n">
-        <v>0.3973261009850264</v>
+        <v>0.3988514205693582</v>
       </c>
       <c r="V37" t="n">
         <v>3</v>
@@ -3973,13 +3973,13 @@
         <v>2</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z37" t="n">
         <v>6</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>4</v>
       </c>
       <c r="AA37" t="n">
         <v>2</v>
@@ -4044,22 +4044,22 @@
         <v>0.6461523200448137</v>
       </c>
       <c r="P38" t="n">
-        <v>0.7095720352825874</v>
+        <v>0.7177635997313633</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3602941176470588</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="R38" t="n">
         <v>0.03422024227260245</v>
       </c>
       <c r="S38" t="n">
-        <v>0.6447476653602361</v>
+        <v>0.6906919714255251</v>
       </c>
       <c r="T38" t="n">
-        <v>62.46816711657905</v>
+        <v>63.44059694122861</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3978864147552806</v>
+        <v>0.401522765450814</v>
       </c>
       <c r="V38" t="n">
         <v>6</v>
@@ -4068,13 +4068,13 @@
         <v>3</v>
       </c>
       <c r="X38" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y38" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z38" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="n">
         <v>17</v>
@@ -4139,22 +4139,22 @@
         <v>0.3608883390906545</v>
       </c>
       <c r="P39" t="n">
-        <v>0.4137536752695198</v>
+        <v>0.4071524513096038</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.07352941176470588</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="R39" t="n">
         <v>0.004958349861166204</v>
       </c>
       <c r="S39" t="n">
-        <v>0.3108820825470557</v>
+        <v>0.3144791555602943</v>
       </c>
       <c r="T39" t="n">
-        <v>33.77366704940793</v>
+        <v>36.19706109035602</v>
       </c>
       <c r="U39" t="n">
-        <v>0.3973372594047992</v>
+        <v>0.4021895676706225</v>
       </c>
       <c r="V39" t="n">
         <v>4</v>
@@ -4163,16 +4163,16 @@
         <v>3</v>
       </c>
       <c r="X39" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -4234,22 +4234,22 @@
         <v>0.1353048268135562</v>
       </c>
       <c r="P40" t="n">
-        <v>0.1891538712838942</v>
+        <v>0.1872061786433848</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="R40" t="n">
         <v>0.0005492326000061026</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1252721730294673</v>
+        <v>0.1210683441731528</v>
       </c>
       <c r="T40" t="n">
-        <v>12.76735512152373</v>
+        <v>13.75952116186512</v>
       </c>
       <c r="U40" t="n">
-        <v>0.3989798475476165</v>
+        <v>0.3931291760532892</v>
       </c>
       <c r="V40" t="n">
         <v>3</v>
@@ -4258,16 +4258,16 @@
         <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -4329,22 +4329,22 @@
         <v>0.1227301372420876</v>
       </c>
       <c r="P41" t="n">
-        <v>0.181639986932375</v>
+        <v>0.1833445265278711</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="R41" t="n">
         <v>0.003737832972263754</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1328688246963759</v>
+        <v>0.1241070476596652</v>
       </c>
       <c r="T41" t="n">
-        <v>13.04197905327611</v>
+        <v>15.05899892791692</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3952114864629125</v>
+        <v>0.3962894454714979</v>
       </c>
       <c r="V41" t="n">
         <v>3</v>
@@ -4353,16 +4353,16 @@
         <v>2</v>
       </c>
       <c r="X41" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA41" t="n">
         <v>4</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -4424,22 +4424,22 @@
         <v>0.189660162449818</v>
       </c>
       <c r="P42" t="n">
-        <v>0.33453119895459</v>
+        <v>0.3399932840832774</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1323529411764706</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="R42" t="n">
         <v>0.004271809111158576</v>
       </c>
       <c r="S42" t="n">
-        <v>0.2034644602506411</v>
+        <v>0.1880264420513914</v>
       </c>
       <c r="T42" t="n">
-        <v>22.1652437769504</v>
+        <v>23.96467506767229</v>
       </c>
       <c r="U42" t="n">
-        <v>0.3958079245884001</v>
+        <v>0.3994112511278715</v>
       </c>
       <c r="V42" t="n">
         <v>3</v>
@@ -4448,16 +4448,16 @@
         <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y42" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -4519,22 +4519,22 @@
         <v>0.3363878255998506</v>
       </c>
       <c r="P43" t="n">
-        <v>0.435968637700098</v>
+        <v>0.4395567494963062</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R43" t="n">
         <v>0.3011472858755683</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2378187448589539</v>
+        <v>0.2236379144898177</v>
       </c>
       <c r="T43" t="n">
-        <v>33.50925959006671</v>
+        <v>35.38177542815589</v>
       </c>
       <c r="U43" t="n">
-        <v>0.3989197570246037</v>
+        <v>0.4020656298654078</v>
       </c>
       <c r="V43" t="n">
         <v>4</v>
@@ -4543,16 +4543,16 @@
         <v>2</v>
       </c>
       <c r="X43" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z43" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA43" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -4614,22 +4614,22 @@
         <v>0.6883787694893101</v>
       </c>
       <c r="P44" t="n">
-        <v>0.7201894805619079</v>
+        <v>0.6729348556077904</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.8455882352941176</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R44" t="n">
         <v>0.7069996643578556</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4887501814486863</v>
+        <v>0.5090094892845719</v>
       </c>
       <c r="T44" t="n">
-        <v>71.17642263112214</v>
+        <v>63.69492613645985</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3976336459839225</v>
+        <v>0.4005970197261626</v>
       </c>
       <c r="V44" t="n">
         <v>6</v>
@@ -4638,16 +4638,16 @@
         <v>3</v>
       </c>
       <c r="X44" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Y44" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Z44" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AA44" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -4709,22 +4709,22 @@
         <v>0.477842871814023</v>
       </c>
       <c r="P45" t="n">
-        <v>0.5704018294674943</v>
+        <v>0.5597716588314305</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="R45" t="n">
         <v>0.08853324382876147</v>
       </c>
       <c r="S45" t="n">
-        <v>0.361107078918082</v>
+        <v>0.3691758183175178</v>
       </c>
       <c r="T45" t="n">
-        <v>42.75425379426972</v>
+        <v>44.48038980047077</v>
       </c>
       <c r="U45" t="n">
-        <v>0.3995724653670067</v>
+        <v>0.4007242324366736</v>
       </c>
       <c r="V45" t="n">
         <v>4</v>
@@ -4733,16 +4733,16 @@
         <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Y45" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Z45" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AA45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4804,22 +4804,22 @@
         <v>0.6071818691065261</v>
       </c>
       <c r="P46" t="n">
-        <v>0.6773930088206469</v>
+        <v>0.6720953660174613</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="R46" t="n">
         <v>0.183321636713148</v>
       </c>
       <c r="S46" t="n">
-        <v>0.5705230560797406</v>
+        <v>0.5295340654654014</v>
       </c>
       <c r="T46" t="n">
-        <v>54.77988802668159</v>
+        <v>55.62407043144992</v>
       </c>
       <c r="U46" t="n">
-        <v>0.3969557103382724</v>
+        <v>0.4001731685715822</v>
       </c>
       <c r="V46" t="n">
         <v>4</v>
@@ -4828,16 +4828,16 @@
         <v>3</v>
       </c>
       <c r="X46" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y46" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z46" t="n">
         <v>26</v>
       </c>
       <c r="AA46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -4899,22 +4899,22 @@
         <v>0.2416336009709644</v>
       </c>
       <c r="P47" t="n">
-        <v>0.3301208755308723</v>
+        <v>0.3326057756883815</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.25</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="R47" t="n">
         <v>0.002013852866689043</v>
       </c>
       <c r="S47" t="n">
-        <v>0.2002709633715585</v>
+        <v>0.1770977716174432</v>
       </c>
       <c r="T47" t="n">
-        <v>23.64835061977544</v>
+        <v>23.44581902779142</v>
       </c>
       <c r="U47" t="n">
-        <v>0.3941391769962574</v>
+        <v>0.3973867631829053</v>
       </c>
       <c r="V47" t="n">
         <v>3</v>
@@ -4923,13 +4923,13 @@
         <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y47" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z47" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA47" t="n">
         <v>9</v>
@@ -4994,22 +4994,22 @@
         <v>0.1146391560078424</v>
       </c>
       <c r="P48" t="n">
-        <v>0.1855602744201242</v>
+        <v>0.1892209536601746</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R48" t="n">
         <v>0.4036859610044854</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1024338317123917</v>
+        <v>0.08993496108327113</v>
       </c>
       <c r="T48" t="n">
-        <v>16.88832600479458</v>
+        <v>17.32016823110239</v>
       </c>
       <c r="U48" t="n">
-        <v>0.3927517675533623</v>
+        <v>0.402794610025637</v>
       </c>
       <c r="V48" t="n">
         <v>3</v>
@@ -5089,22 +5089,22 @@
         <v>0.09638105685743628</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1058477621692257</v>
+        <v>0.1087978509066488</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.08088235294117647</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="R49" t="n">
         <v>0.6011808500900131</v>
       </c>
       <c r="S49" t="n">
-        <v>0.07528910824018968</v>
+        <v>0.06418594732913957</v>
       </c>
       <c r="T49" t="n">
-        <v>14.4362194933398</v>
+        <v>14.1763364795758</v>
       </c>
       <c r="U49" t="n">
-        <v>0.3901680944145893</v>
+        <v>0.393787124432661</v>
       </c>
       <c r="V49" t="n">
         <v>3</v>
@@ -5113,13 +5113,13 @@
         <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y49" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA49" t="n">
         <v>7</v>
@@ -5184,22 +5184,22 @@
         <v>0.6675462141723462</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6809866056844168</v>
+        <v>0.7086971121558092</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6176470588235294</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
         <v>0.411436243249016</v>
       </c>
       <c r="S50" t="n">
-        <v>0.731552716891663</v>
+        <v>0.627092440558695</v>
       </c>
       <c r="T50" t="n">
-        <v>63.3337463637591</v>
+        <v>67.1891845232868</v>
       </c>
       <c r="U50" t="n">
-        <v>0.3983254488286736</v>
+        <v>0.4023304462472264</v>
       </c>
       <c r="V50" t="n">
         <v>4</v>
@@ -5208,16 +5208,16 @@
         <v>3</v>
       </c>
       <c r="X50" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Z50" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AA50" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -5279,22 +5279,22 @@
         <v>0.3556915787508169</v>
       </c>
       <c r="P51" t="n">
-        <v>0.361156484808886</v>
+        <v>0.3475486903962391</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.1838235294117647</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="R51" t="n">
         <v>0.0174076221279712</v>
       </c>
       <c r="S51" t="n">
-        <v>0.3281076111675618</v>
+        <v>0.3835696769378398</v>
       </c>
       <c r="T51" t="n">
-        <v>31.79751885615885</v>
+        <v>31.60080163900328</v>
       </c>
       <c r="U51" t="n">
-        <v>0.3974689857019856</v>
+        <v>0.4000101473291555</v>
       </c>
       <c r="V51" t="n">
         <v>4</v>
@@ -5303,16 +5303,16 @@
         <v>3</v>
       </c>
       <c r="X51" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z51" t="n">
         <v>17</v>
       </c>
       <c r="AA51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -5374,22 +5374,22 @@
         <v>0.5205081224908972</v>
       </c>
       <c r="P52" t="n">
-        <v>0.2009147337471414</v>
+        <v>0.1956010745466756</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.2205882352941176</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="R52" t="n">
         <v>0.04705092606718946</v>
       </c>
       <c r="S52" t="n">
-        <v>0.2986887308269222</v>
+        <v>0.468919927497601</v>
       </c>
       <c r="T52" t="n">
-        <v>32.47166862171812</v>
+        <v>32.46521452266647</v>
       </c>
       <c r="U52" t="n">
-        <v>0.3959959588014405</v>
+        <v>0.4008051175637836</v>
       </c>
       <c r="V52" t="n">
         <v>4</v>
@@ -5398,16 +5398,16 @@
         <v>3</v>
       </c>
       <c r="X52" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z52" t="n">
         <v>17</v>
       </c>
       <c r="AA52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -5469,22 +5469,22 @@
         <v>0.1734116795817384</v>
       </c>
       <c r="P53" t="n">
-        <v>0.1973211368833714</v>
+        <v>0.2206178643384822</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.2279411764705882</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="R53" t="n">
         <v>0.1936350044243737</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1338849373397203</v>
+        <v>0.1456445250026655</v>
       </c>
       <c r="T53" t="n">
-        <v>19.45960973037715</v>
+        <v>19.34129408945185</v>
       </c>
       <c r="U53" t="n">
-        <v>0.3971348924566766</v>
+        <v>0.4029436268635802</v>
       </c>
       <c r="V53" t="n">
         <v>3</v>
@@ -5493,16 +5493,16 @@
         <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y53" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z53" t="n">
         <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -5564,22 +5564,22 @@
         <v>0.2349337130053216</v>
       </c>
       <c r="P54" t="n">
-        <v>0.3556027442012414</v>
+        <v>0.319341840161182</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.2132352941176471</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0.3688488895340398</v>
+        <v>0.377172406439919</v>
       </c>
       <c r="T54" t="n">
-        <v>27.77679754515138</v>
+        <v>27.86993501679403</v>
       </c>
       <c r="U54" t="n">
-        <v>0.3968113935021626</v>
+        <v>0.3981419288113434</v>
       </c>
       <c r="V54" t="n">
         <v>4</v>
@@ -5659,22 +5659,22 @@
         <v>0.225403790495752</v>
       </c>
       <c r="P55" t="n">
-        <v>0.2575955570075139</v>
+        <v>0.2202820685023506</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="R55" t="n">
         <v>0.02503585268361151</v>
       </c>
       <c r="S55" t="n">
-        <v>0.2187545362171578</v>
+        <v>0.1659558588335643</v>
       </c>
       <c r="T55" t="n">
-        <v>23.86358752764377</v>
+        <v>21.22765592142467</v>
       </c>
       <c r="U55" t="n">
-        <v>0.3977264587940628</v>
+        <v>0.4005218098382013</v>
       </c>
       <c r="V55" t="n">
         <v>3</v>
@@ -5683,16 +5683,16 @@
         <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Y55" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z55" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -5754,22 +5754,22 @@
         <v>0.2307067500700215</v>
       </c>
       <c r="P56" t="n">
-        <v>0.3342045083306109</v>
+        <v>0.4536601746138348</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.09558823529411764</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R56" t="n">
         <v>0.3029017789033656</v>
       </c>
       <c r="S56" t="n">
-        <v>0.1719649683069628</v>
+        <v>0.1414862991790169</v>
       </c>
       <c r="T56" t="n">
-        <v>21.87269509396604</v>
+        <v>24.97171453923143</v>
       </c>
       <c r="U56" t="n">
-        <v>0.3976853653448371</v>
+        <v>0.4027695893424424</v>
       </c>
       <c r="V56" t="n">
         <v>3</v>
@@ -5778,16 +5778,16 @@
         <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y56" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Z56" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA56" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
